--- a/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
+++ b/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>UC01</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Necessita de uma discurção sobre a divisão ou não dos exércitos do jogador que abandonou o jogo</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -123,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,169 +429,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="90.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="1">
+        <v>40281</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="1">
+        <v>40281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40282</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
+++ b/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>UC01</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,12 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40282</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">

--- a/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
+++ b/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>UC01</t>
   </si>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,7 +562,12 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40284</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">

--- a/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
+++ b/trunk/Gerência de Projetos/Divisão dos casos de uso - Temporário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>UC01</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Necessita de uma discurção sobre o modo de especificar vários jogadores a serem selecionados.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,7 +489,15 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40291</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
